--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0018-020 - Abnormal Penyelia, CRO CRM, SRM, Admin SLN, dan Admin WEM melakukan edit data Non Sales yang telah diajukan.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0018-020 - Abnormal Penyelia, CRO CRM, SRM, Admin SLN, dan Admin WEM melakukan edit data Non Sales yang telah diajukan.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6D75ED-ADBB-4831-B250-6B44733B01AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F69EF2-41F3-4F0D-90F6-3DD4C6AD0CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SCD0297" sheetId="2" r:id="rId1"/>
+    <sheet name="SCD0018" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -104,9 +104,6 @@
     <t>Sales</t>
   </si>
   <si>
-    <t>DGS-312</t>
-  </si>
-  <si>
     <t xml:space="preserve"> -Login sebagai Penyelia
  -Pilih menu monitoring di fitur non sales update
  -Klik button edit 
@@ -146,6 +143,9 @@
   </si>
   <si>
     <t>Cuti Sakit,--Silahkan Pilih Alasan--</t>
+  </si>
+  <si>
+    <t>SCD0018-020</t>
   </si>
 </sst>
 </file>
@@ -536,14 +536,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EAF5E5-8229-45B3-AC11-8AED029F52F4}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.85546875" customWidth="1"/>
     <col min="4" max="4" width="62.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.5703125" bestFit="1" customWidth="1"/>
@@ -621,16 +621,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="3">
         <v>32362</v>
@@ -651,15 +651,15 @@
       </c>
       <c r="M2" s="1" t="str">
         <f ca="1">TEXT(TODAY(),"yyyy-mm-dd")</f>
-        <v>2022-09-07</v>
+        <v>2022-11-10</v>
       </c>
       <c r="N2" s="1" t="str">
         <f ca="1">TEXT(TODAY()+2,"yyyy-mm-dd")</f>
-        <v>2022-09-09</v>
+        <v>2022-11-12</v>
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R2" s="7"/>
       <c r="S2" s="1"/>
@@ -669,16 +669,16 @@
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" s="3">
         <v>29349</v>
@@ -697,16 +697,16 @@
       </c>
       <c r="M3" s="1" t="str">
         <f t="shared" ref="M3:M6" ca="1" si="0">TEXT(TODAY(),"yyyy-mm-dd")</f>
-        <v>2022-09-07</v>
+        <v>2022-11-10</v>
       </c>
       <c r="N3" s="1" t="str">
         <f t="shared" ref="N3:N6" ca="1" si="1">TEXT(TODAY()+2,"yyyy-mm-dd")</f>
-        <v>2022-09-09</v>
+        <v>2022-11-12</v>
       </c>
       <c r="O3" s="6"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R3" s="7"/>
     </row>
@@ -715,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="3">
         <v>32587</v>
@@ -743,16 +743,16 @@
       </c>
       <c r="M4" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2022-09-07</v>
+        <v>2022-11-10</v>
       </c>
       <c r="N4" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2022-09-09</v>
+        <v>2022-11-12</v>
       </c>
       <c r="O4" s="6"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R4" s="7"/>
     </row>
@@ -761,16 +761,16 @@
         <v>0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F5" s="3">
         <v>37679</v>
@@ -789,16 +789,16 @@
       </c>
       <c r="M5" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2022-09-07</v>
+        <v>2022-11-10</v>
       </c>
       <c r="N5" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2022-09-09</v>
+        <v>2022-11-12</v>
       </c>
       <c r="O5" s="6"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R5" s="7"/>
     </row>
@@ -807,16 +807,16 @@
         <v>0</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="F6" s="3">
         <v>52326</v>
@@ -835,16 +835,16 @@
       </c>
       <c r="M6" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2022-09-07</v>
+        <v>2022-11-10</v>
       </c>
       <c r="N6" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2022-09-09</v>
+        <v>2022-11-12</v>
       </c>
       <c r="O6" s="6"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R6" s="7"/>
     </row>
